--- a/doc/实施文档/初始化配置数据.xlsx
+++ b/doc/实施文档/初始化配置数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字典配置" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
   <si>
     <t>字典名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,46 @@
   </si>
   <si>
     <t>黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKSHOP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAREHOUSE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCATION_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREA_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINERY_TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型编码规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位编码规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区编码规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编码规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间编码规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,6 +649,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,9 +681,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,8 +693,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -959,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,19 +1012,19 @@
   <sheetData>
     <row r="3" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
@@ -993,15 +1033,15 @@
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
@@ -1060,19 +1100,19 @@
     </row>
     <row r="15" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1081,15 +1121,15 @@
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
@@ -1170,19 +1210,19 @@
     </row>
     <row r="28" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="4" t="s">
         <v>32</v>
       </c>
@@ -1191,15 +1231,15 @@
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
@@ -1236,19 +1276,19 @@
     </row>
     <row r="37" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="4" t="s">
         <v>57</v>
       </c>
@@ -1257,15 +1297,15 @@
       <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
@@ -1301,7 +1341,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45" s="30"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
@@ -1310,7 +1350,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B46" s="30"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="1" t="s">
         <v>61</v>
       </c>
@@ -1319,7 +1359,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="31"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="10" t="s">
         <v>62</v>
       </c>
@@ -1329,22 +1369,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G55"/>
+  <dimension ref="B2:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1371,72 +1411,72 @@
   <sheetData>
     <row r="2" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25">
+      <c r="C5" s="26"/>
+      <c r="D5" s="31">
         <v>8</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
@@ -1500,72 +1540,72 @@
     </row>
     <row r="16" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25">
+      <c r="C19" s="26"/>
+      <c r="D19" s="31">
         <v>8</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="6" t="s">
@@ -1629,72 +1669,72 @@
     </row>
     <row r="30" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25">
+      <c r="C33" s="26"/>
+      <c r="D33" s="31">
         <v>8</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
@@ -1758,72 +1798,72 @@
     </row>
     <row r="44" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25">
+      <c r="C47" s="26"/>
+      <c r="D47" s="31">
         <v>8</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
@@ -1885,36 +1925,703 @@
       <c r="F55" s="14"/>
       <c r="G55" s="11"/>
     </row>
+    <row r="57" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="31">
+        <v>8</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="8">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="8">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="8">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="9">
+        <v>4</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="71" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="30"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="31">
+        <v>8</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="24"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="8">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="8">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B81" s="8">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="9">
+        <v>4</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="85" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B86" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="30"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B87" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="31">
+        <v>8</v>
+      </c>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B89" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="22"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B91" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B93" s="8">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B94" s="8">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B95" s="8">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="9">
+        <v>4</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="99" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B100" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="18"/>
+      <c r="D100" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B101" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="24"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B102" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="31">
+        <v>8</v>
+      </c>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="24"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B103" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B105" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="24"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B106" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B107" s="8">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B108" s="8">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B109" s="8">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="9">
+        <v>4</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="114" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B115" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="30"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B116" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="24"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B117" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="31">
+        <v>8</v>
+      </c>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="24"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B118" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="26"/>
+      <c r="D118" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="24"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B119" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="21"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="22"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B120" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="24"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B122" s="8">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B123" s="8">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B124" s="8">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="9">
+        <v>4</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
+  <mergeCells count="90">
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="B36:G36"/>
@@ -1927,6 +2634,34 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C49:G49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/实施文档/初始化配置数据.xlsx
+++ b/doc/实施文档/初始化配置数据.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="字典配置" sheetId="1" r:id="rId1"/>
     <sheet name="编码规则配置" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="业务数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="97">
   <si>
     <t>字典名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,82 @@
   </si>
   <si>
     <t>车间编码规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存备货客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码分类根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型分类根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mes_order_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态【通用】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREPARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mes_workorder_sourcetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工单来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,6 +757,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,9 +770,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -997,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D47"/>
+  <dimension ref="B3:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1367,8 +1443,183 @@
         <v>67</v>
       </c>
     </row>
+    <row r="49" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56" s="8">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57" s="15"/>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58" s="15"/>
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="16"/>
+      <c r="C59" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B62" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B63" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" s="8">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="9">
+        <v>2</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="C6:D6"/>
@@ -1377,14 +1628,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
@@ -1415,19 +1658,19 @@
         <v>37</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="23"/>
@@ -1439,7 +1682,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="D5" s="31">
+      <c r="D5" s="27">
         <v>8</v>
       </c>
       <c r="E5" s="23"/>
@@ -1451,7 +1694,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="23"/>
@@ -1463,9 +1706,9 @@
         <v>4</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
@@ -1544,19 +1787,19 @@
         <v>37</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="23"/>
@@ -1568,7 +1811,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="31">
+      <c r="D19" s="27">
         <v>8</v>
       </c>
       <c r="E19" s="23"/>
@@ -1580,7 +1823,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="23"/>
@@ -1592,9 +1835,9 @@
         <v>4</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
@@ -1673,19 +1916,19 @@
         <v>37</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="27" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="23"/>
@@ -1697,7 +1940,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="26"/>
-      <c r="D33" s="31">
+      <c r="D33" s="27">
         <v>8</v>
       </c>
       <c r="E33" s="23"/>
@@ -1709,7 +1952,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="26"/>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="23"/>
@@ -1721,9 +1964,9 @@
         <v>4</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
@@ -1802,19 +2045,19 @@
         <v>37</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E46" s="23"/>
@@ -1826,7 +2069,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="31">
+      <c r="D47" s="27">
         <v>8</v>
       </c>
       <c r="E47" s="23"/>
@@ -1838,7 +2081,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E48" s="23"/>
@@ -1850,9 +2093,9 @@
         <v>4</v>
       </c>
       <c r="C49" s="21"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="22"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
@@ -1931,19 +2174,19 @@
         <v>37</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="31"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="27" t="s">
         <v>77</v>
       </c>
       <c r="E59" s="23"/>
@@ -1955,7 +2198,7 @@
         <v>39</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="D60" s="31">
+      <c r="D60" s="27">
         <v>8</v>
       </c>
       <c r="E60" s="23"/>
@@ -1967,7 +2210,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="26"/>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E61" s="23"/>
@@ -1979,9 +2222,9 @@
         <v>4</v>
       </c>
       <c r="C62" s="21"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.15">
@@ -2060,19 +2303,19 @@
         <v>37</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="31"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="26"/>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="27" t="s">
         <v>76</v>
       </c>
       <c r="E73" s="23"/>
@@ -2084,7 +2327,7 @@
         <v>39</v>
       </c>
       <c r="C74" s="26"/>
-      <c r="D74" s="31">
+      <c r="D74" s="27">
         <v>8</v>
       </c>
       <c r="E74" s="23"/>
@@ -2096,7 +2339,7 @@
         <v>40</v>
       </c>
       <c r="C75" s="26"/>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E75" s="23"/>
@@ -2108,9 +2351,9 @@
         <v>4</v>
       </c>
       <c r="C76" s="21"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
       <c r="G76" s="22"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
@@ -2189,19 +2432,19 @@
         <v>37</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="31"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B87" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="26"/>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E87" s="23"/>
@@ -2213,7 +2456,7 @@
         <v>39</v>
       </c>
       <c r="C88" s="26"/>
-      <c r="D88" s="31">
+      <c r="D88" s="27">
         <v>8</v>
       </c>
       <c r="E88" s="23"/>
@@ -2225,7 +2468,7 @@
         <v>40</v>
       </c>
       <c r="C89" s="26"/>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E89" s="23"/>
@@ -2237,9 +2480,9 @@
         <v>4</v>
       </c>
       <c r="C90" s="21"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
       <c r="G90" s="22"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
@@ -2318,19 +2561,19 @@
         <v>37</v>
       </c>
       <c r="C100" s="18"/>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="31"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C101" s="26"/>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E101" s="23"/>
@@ -2342,7 +2585,7 @@
         <v>39</v>
       </c>
       <c r="C102" s="26"/>
-      <c r="D102" s="31">
+      <c r="D102" s="27">
         <v>8</v>
       </c>
       <c r="E102" s="23"/>
@@ -2354,7 +2597,7 @@
         <v>40</v>
       </c>
       <c r="C103" s="26"/>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E103" s="23"/>
@@ -2366,9 +2609,9 @@
         <v>4</v>
       </c>
       <c r="C104" s="21"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
       <c r="G104" s="22"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.15">
@@ -2447,19 +2690,19 @@
         <v>37</v>
       </c>
       <c r="C115" s="18"/>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="31"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B116" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C116" s="26"/>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E116" s="23"/>
@@ -2471,7 +2714,7 @@
         <v>39</v>
       </c>
       <c r="C117" s="26"/>
-      <c r="D117" s="31">
+      <c r="D117" s="27">
         <v>8</v>
       </c>
       <c r="E117" s="23"/>
@@ -2483,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="C118" s="26"/>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="27" t="s">
         <v>49</v>
       </c>
       <c r="E118" s="23"/>
@@ -2495,9 +2738,9 @@
         <v>4</v>
       </c>
       <c r="C119" s="21"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
       <c r="G119" s="22"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
@@ -2572,56 +2815,34 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="B36:G36"/>
@@ -2634,34 +2855,56 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C49:G49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="C119:G119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2670,12 +2913,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
